--- a/spliced/struggle/2023-04-11_10-08-48/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-08-48/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07765638828277598</v>
+        <v>-0.002831595284598272</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.03652976825833296</v>
+        <v>-0.19119707601411</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2774001099169262</v>
+        <v>0.1513774214046346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3138503687722347</v>
+        <v>0.07765638828277598</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4584181170378426</v>
+        <v>-0.03652976825833296</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.157653536115375</v>
+        <v>-0.2774001099169262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.636749148368837</v>
+        <v>0.3138503687722347</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.279087890471731</v>
+        <v>-0.4584181170378426</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.728167861700062</v>
+        <v>-1.157653536115375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.14729608808245</v>
+        <v>1.636749148368837</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2204303741455076</v>
+        <v>-1.279087890471731</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.918471813201904</v>
+        <v>-4.728167861700062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.006189529384884</v>
+        <v>1.14729608808245</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.457232869097163</v>
+        <v>-0.2204303741455076</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.90848708152771</v>
+        <v>-3.918471813201904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.098220126969473</v>
+        <v>-1.006189529384884</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.104542408670699</v>
+        <v>-0.457232869097163</v>
       </c>
       <c r="C7" t="n">
-        <v>1.474607501711155</v>
+        <v>-1.90848708152771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.035840166466564</v>
+        <v>-2.098220126969473</v>
       </c>
       <c r="B8" t="n">
-        <v>1.3544525780848</v>
+        <v>-1.104542408670699</v>
       </c>
       <c r="C8" t="n">
-        <v>6.731560809271667</v>
+        <v>1.474607501711155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-7.820377826690675</v>
+        <v>-5.035840166466564</v>
       </c>
       <c r="B9" t="n">
-        <v>2.300654053688046</v>
+        <v>1.3544525780848</v>
       </c>
       <c r="C9" t="n">
-        <v>7.095898866653437</v>
+        <v>6.731560809271667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.805607523236966</v>
+        <v>-7.820377826690675</v>
       </c>
       <c r="B10" t="n">
-        <v>2.29458946415356</v>
+        <v>2.300654053688046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1832081420081089</v>
+        <v>7.095898866653437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.364815167018334</v>
+        <v>-1.805607523236966</v>
       </c>
       <c r="B11" t="n">
-        <v>1.71517636094774</v>
+        <v>2.29458946415356</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.800688726561401</v>
+        <v>0.1832081420081089</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.538227507046292</v>
+        <v>1.364815167018334</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1809541881084444</v>
+        <v>1.71517636094774</v>
       </c>
       <c r="C12" t="n">
-        <v>1.764710307121269</v>
+        <v>-2.800688726561401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.092569351196289</v>
+        <v>-2.538227507046292</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6709982327052525</v>
+        <v>-0.1809541881084444</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.201459612165179</v>
+        <v>1.764710307121269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.829659972872078</v>
+        <v>-2.092569351196289</v>
       </c>
       <c r="B14" t="n">
-        <v>1.32810748687812</v>
+        <v>0.6709982327052525</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.335261804716874</v>
+        <v>-5.201459612165179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.789446592330947</v>
+        <v>2.829659972872078</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9393511286803589</v>
+        <v>1.32810748687812</v>
       </c>
       <c r="C15" t="n">
-        <v>7.550768171037943</v>
+        <v>-7.335261804716874</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6611437201499961</v>
+        <v>5.789446592330947</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.4462269321084</v>
+        <v>-0.9393511286803589</v>
       </c>
       <c r="C16" t="n">
-        <v>5.736638069152827</v>
+        <v>7.550768171037943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.795438630240309</v>
+        <v>-0.6611437201499961</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.6667117263589585</v>
+        <v>-2.4462269321084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3705058097839308</v>
+        <v>5.736638069152827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.502477117947166</v>
+        <v>-1.795438630240309</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.6020157241395544</v>
+        <v>-0.6667117263589585</v>
       </c>
       <c r="C18" t="n">
-        <v>4.68433271135602</v>
+        <v>0.3705058097839308</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-9.597015057291248</v>
+        <v>-2.502477117947166</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.637856924108093</v>
+        <v>-0.6020157241395544</v>
       </c>
       <c r="C19" t="n">
-        <v>7.518706285527828</v>
+        <v>4.68433271135602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-10.96845097201216</v>
+        <v>-9.597015057291248</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.236061673079225</v>
+        <v>-0.637856924108093</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.280897122408647</v>
+        <v>7.518706285527828</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-10.96845097201216</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.236061673079225</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.280897122408647</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>2.115621226174531</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>0.9094340460641233</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-5.153596741812609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.750307172536849</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.468972404088292</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1615269269261984</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.695782780647288</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.6018874943256158</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.057165026664715</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-5.04273155757359</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.776979684829711</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.505371774945944</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-2.32667221341812</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9583009992326832</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.241142443248169</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.433021928582876</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.759944068534038</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.60468020609447</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.125196490968979</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5359780830996369</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.942476987838745</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.455752406801498</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2274821900895648</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.951905420848299</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-2.549259322030204</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.480571014540536</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.463431903294155</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.6998523473739624</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.159572852775452</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4669593572616656</v>
       </c>
     </row>
   </sheetData>
